--- a/biology/Médecine/Yeshi_Choedron/Yeshi_Choedron.xlsx
+++ b/biology/Médecine/Yeshi_Choedron/Yeshi_Choedron.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Yeshi Choedron aussi écrit Yeshi Choedon tibétain : ཡེ་ཤེས་ཆོས་སྒྲོན, Wylie : ye shes chos sgron (née en 1955) est une femme médecin et prisonnière politique tibétaine. 
 </t>
@@ -511,14 +523,16 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Yeshi Choedon a travaillé dans une clinique près de Norbulingka avant de prendre sa retraite puis s'est installée près de Ramoché[1].
-Yeshi Choedon est arrêtée sans inculpation valable lors des manifestations des Tibétains à Lhassa en mars 2008. Depuis, les membres de sa famille n'ont pas le droit de la rencontrer[1].
-Yeshi Choedon est accusée d'avoir fourni des renseignements jugés préjudiciables à l'État[2].
-Yeshi Choedon est condamnée 7 novembre 2008 à 15 ans d'emprisonnement et à 5 ans de suspension de ses droits politiques par le tribunal populaire intermédiaire de Lhassa pour avoir divulgué des secrets au monde extérieur lors des manifestations pacifiques à mars de l'année dernière[1]. Elle est emprisonnéé dans la prison de Drapchi[2].  
-Son état de santé serait fragile[3]. Sa santé s'était détériorée dans la prison de Chushul, en périphérie de Lhassa, avant d'être transférée à l'hôpital de la police pour des soins d'urgence en 2012. Gravement malade en raison de tortures en prison elle est hospitalisée pour des soins d'urgence vers avril 2016[4].
-Elle est la première personnalité a avoir reçu, en 2016, la Médaille du courage Tenzin Delek Rinpoché[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yeshi Choedon a travaillé dans une clinique près de Norbulingka avant de prendre sa retraite puis s'est installée près de Ramoché.
+Yeshi Choedon est arrêtée sans inculpation valable lors des manifestations des Tibétains à Lhassa en mars 2008. Depuis, les membres de sa famille n'ont pas le droit de la rencontrer.
+Yeshi Choedon est accusée d'avoir fourni des renseignements jugés préjudiciables à l'État.
+Yeshi Choedon est condamnée 7 novembre 2008 à 15 ans d'emprisonnement et à 5 ans de suspension de ses droits politiques par le tribunal populaire intermédiaire de Lhassa pour avoir divulgué des secrets au monde extérieur lors des manifestations pacifiques à mars de l'année dernière. Elle est emprisonnéé dans la prison de Drapchi.  
+Son état de santé serait fragile. Sa santé s'était détériorée dans la prison de Chushul, en périphérie de Lhassa, avant d'être transférée à l'hôpital de la police pour des soins d'urgence en 2012. Gravement malade en raison de tortures en prison elle est hospitalisée pour des soins d'urgence vers avril 2016.
+Elle est la première personnalité a avoir reçu, en 2016, la Médaille du courage Tenzin Delek Rinpoché.
 </t>
         </is>
       </c>
